--- a/Shooting Scenes.xlsx
+++ b/Shooting Scenes.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\KAMERAWERK\Automatic-Focusing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDE2D50-4265-43FA-9874-6711548B8C42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF0CF03-768B-49DE-BB93-5CBB0B918A4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="English" sheetId="1" r:id="rId1"/>
+    <sheet name="简体中文" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="59">
   <si>
     <t>Classification</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>far away</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3-5m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,10 +88,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>landscape</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&gt;5m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,6 +137,130 @@
   </si>
   <si>
     <t>10-30cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物-特写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物-集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑物-白天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑物-夜间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档-屏幕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档-纸质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通工具-白天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通工具-夜晚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人像-自拍（前置）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人像-集体照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风景-白天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风景-夜间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;50m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>landscape-day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>landscape-night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纹理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>室内环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;10m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30-50cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-40cm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40-80cm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,7 +268,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +282,28 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,9 +326,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -542,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -552,233 +700,553 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D6AD3B-F6DC-4D02-BC6A-D54BAEE5AD64}">
+  <dimension ref="B2:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="6" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>12</v>
+      <c r="F19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
